--- a/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW25.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW25.xlsx
@@ -2307,37 +2307,37 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8248098873952041</v>
+        <v>0.0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7959025920451107</v>
+        <v>0.0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8571638719516415</v>
+        <v>0.0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6989856922628866</v>
+        <v>0.0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8629697310871596</v>
+        <v>0.0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.7969153513342677</v>
+        <v>0.0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8534425708746322</v>
+        <v>0.0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.91974802287702</v>
+        <v>0.0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.8761423042072934</v>
+        <v>0.0</v>
       </c>
       <c r="K59" t="n">
-        <v>0.8606438959236418</v>
+        <v>0.0</v>
       </c>
       <c r="L59" t="n">
-        <v>0.7425820070854081</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
@@ -3941,37 +3941,37 @@
         <v>101.0</v>
       </c>
       <c r="B102" t="n">
-        <v>1.438533054835623</v>
+        <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>1.2067899651612788</v>
+        <v>0.0</v>
       </c>
       <c r="D102" t="n">
-        <v>1.3738512600551578</v>
+        <v>0.0</v>
       </c>
       <c r="E102" t="n">
-        <v>1.1985844221672066</v>
+        <v>0.0</v>
       </c>
       <c r="F102" t="n">
-        <v>1.4522787838683335</v>
+        <v>0.0</v>
       </c>
       <c r="G102" t="n">
-        <v>1.206292023620456</v>
+        <v>0.0</v>
       </c>
       <c r="H102" t="n">
-        <v>1.1931522868727094</v>
+        <v>0.0</v>
       </c>
       <c r="I102" t="n">
-        <v>1.397453587344988</v>
+        <v>0.0</v>
       </c>
       <c r="J102" t="n">
-        <v>1.3965807085925654</v>
+        <v>0.0</v>
       </c>
       <c r="K102" t="n">
-        <v>1.3681042819453015</v>
+        <v>0.0</v>
       </c>
       <c r="L102" t="n">
-        <v>1.321266684616281</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
@@ -4739,37 +4739,37 @@
         <v>122.0</v>
       </c>
       <c r="B123" t="n">
-        <v>0.4865948884991567</v>
+        <v>0.0</v>
       </c>
       <c r="C123" t="n">
-        <v>0.4432075623684462</v>
+        <v>0.0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.49043960582009594</v>
+        <v>0.0</v>
       </c>
       <c r="E123" t="n">
-        <v>0.4965333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.4022624987095693</v>
+        <v>0.0</v>
       </c>
       <c r="G123" t="n">
-        <v>0.43552309356593033</v>
+        <v>0.0</v>
       </c>
       <c r="H123" t="n">
-        <v>0.4993386070868552</v>
+        <v>0.0</v>
       </c>
       <c r="I123" t="n">
-        <v>0.45024047133937894</v>
+        <v>0.0</v>
       </c>
       <c r="J123" t="n">
-        <v>0.47339645592436896</v>
+        <v>0.0</v>
       </c>
       <c r="K123" t="n">
-        <v>0.466376935824327</v>
+        <v>0.0</v>
       </c>
       <c r="L123" t="n">
-        <v>0.47478837304103294</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="124">
@@ -6221,37 +6221,37 @@
         <v>161.0</v>
       </c>
       <c r="B162" t="n">
-        <v>3.2657315203197075</v>
+        <v>0.0</v>
       </c>
       <c r="C162" t="n">
-        <v>3.091824618324695</v>
+        <v>0.0</v>
       </c>
       <c r="D162" t="n">
-        <v>2.5241360562152524</v>
+        <v>0.0</v>
       </c>
       <c r="E162" t="n">
-        <v>3.0288413410024537</v>
+        <v>0.0</v>
       </c>
       <c r="F162" t="n">
-        <v>2.8939139515396293</v>
+        <v>0.0</v>
       </c>
       <c r="G162" t="n">
-        <v>3.1079080624713376</v>
+        <v>0.0</v>
       </c>
       <c r="H162" t="n">
-        <v>2.7319403390794035</v>
+        <v>0.0</v>
       </c>
       <c r="I162" t="n">
-        <v>2.9541599601602933</v>
+        <v>0.0</v>
       </c>
       <c r="J162" t="n">
-        <v>3.02591415359404</v>
+        <v>0.0</v>
       </c>
       <c r="K162" t="n">
-        <v>2.989630545942651</v>
+        <v>0.0</v>
       </c>
       <c r="L162" t="n">
-        <v>3.059687014559644</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="163">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>0.2143043324893388</v>
+        <v>0.0</v>
       </c>
       <c r="C179" t="n">
-        <v>0.24859959880021942</v>
+        <v>0.0</v>
       </c>
       <c r="D179" t="n">
-        <v>0.24727217277566538</v>
+        <v>0.0</v>
       </c>
       <c r="E179" t="n">
-        <v>0.2406666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.2543563295712594</v>
+        <v>0.0</v>
       </c>
       <c r="G179" t="n">
-        <v>0.24870221745710402</v>
+        <v>0.0</v>
       </c>
       <c r="H179" t="n">
-        <v>0.23520452203060208</v>
+        <v>0.0</v>
       </c>
       <c r="I179" t="n">
-        <v>0.24584174477158402</v>
+        <v>0.0</v>
       </c>
       <c r="J179" t="n">
-        <v>0.24206736793652436</v>
+        <v>0.0</v>
       </c>
       <c r="K179" t="n">
-        <v>0.2085037407263699</v>
+        <v>0.0</v>
       </c>
       <c r="L179" t="n">
-        <v>0.21867704045083422</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="180">
@@ -9603,37 +9603,37 @@
         <v>250.0</v>
       </c>
       <c r="B251" t="n">
-        <v>1.0677758271326765</v>
+        <v>0.0</v>
       </c>
       <c r="C251" t="n">
-        <v>1.0303532505191821</v>
+        <v>0.0</v>
       </c>
       <c r="D251" t="n">
-        <v>1.1096603912591911</v>
+        <v>0.0</v>
       </c>
       <c r="E251" t="n">
-        <v>0.9048873408476674</v>
+        <v>0.0</v>
       </c>
       <c r="F251" t="n">
-        <v>1.117176494224714</v>
+        <v>0.0</v>
       </c>
       <c r="G251" t="n">
-        <v>1.0316643403887291</v>
+        <v>0.0</v>
       </c>
       <c r="H251" t="n">
-        <v>1.1048428988936934</v>
+        <v>0.0</v>
       </c>
       <c r="I251" t="n">
-        <v>1.1906800838465121</v>
+        <v>0.0</v>
       </c>
       <c r="J251" t="n">
-        <v>1.1342293392181655</v>
+        <v>0.0</v>
       </c>
       <c r="K251" t="n">
-        <v>1.1141655330281375</v>
+        <v>0.0</v>
       </c>
       <c r="L251" t="n">
-        <v>0.9613259115182559</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="252">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>3.774060177790843</v>
+        <v>0.0</v>
       </c>
       <c r="C254" t="n">
-        <v>4.3901210973483416</v>
+        <v>0.0</v>
       </c>
       <c r="D254" t="n">
-        <v>4.588507654495583</v>
+        <v>0.0</v>
       </c>
       <c r="E254" t="n">
-        <v>4.489067673464698</v>
+        <v>0.0</v>
       </c>
       <c r="F254" t="n">
-        <v>4.0607645856957095</v>
+        <v>0.0</v>
       </c>
       <c r="G254" t="n">
-        <v>4.386774137580362</v>
+        <v>0.0</v>
       </c>
       <c r="H254" t="n">
-        <v>4.505179757119878</v>
+        <v>0.0</v>
       </c>
       <c r="I254" t="n">
-        <v>4.02381415929433</v>
+        <v>0.0</v>
       </c>
       <c r="J254" t="n">
-        <v>3.955942595672264</v>
+        <v>0.0</v>
       </c>
       <c r="K254" t="n">
-        <v>4.675809582225662</v>
+        <v>0.0</v>
       </c>
       <c r="L254" t="n">
-        <v>4.679361595459768</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="255">
@@ -9831,37 +9831,37 @@
         <v>256.0</v>
       </c>
       <c r="B257" t="n">
-        <v>1.8987539010469159</v>
+        <v>0.0</v>
       </c>
       <c r="C257" t="n">
-        <v>2.208698104156329</v>
+        <v>0.0</v>
       </c>
       <c r="D257" t="n">
-        <v>2.308507654495583</v>
+        <v>0.0</v>
       </c>
       <c r="E257" t="n">
-        <v>2.258478761736129</v>
+        <v>0.0</v>
       </c>
       <c r="F257" t="n">
-        <v>2.0429967290124647</v>
+        <v>0.0</v>
       </c>
       <c r="G257" t="n">
-        <v>2.207014227213005</v>
+        <v>0.0</v>
       </c>
       <c r="H257" t="n">
-        <v>2.2665848544461227</v>
+        <v>0.0</v>
       </c>
       <c r="I257" t="n">
-        <v>2.0244067323060437</v>
+        <v>0.0</v>
       </c>
       <c r="J257" t="n">
-        <v>1.9902601129818684</v>
+        <v>0.0</v>
       </c>
       <c r="K257" t="n">
-        <v>2.352429814725533</v>
+        <v>0.0</v>
       </c>
       <c r="L257" t="n">
-        <v>2.3542168553838985</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="258">
@@ -10287,37 +10287,37 @@
         <v>268.0</v>
       </c>
       <c r="B269" t="n">
-        <v>2.3963491902564678</v>
+        <v>0.0</v>
       </c>
       <c r="C269" t="n">
-        <v>2.356442382943893</v>
+        <v>0.0</v>
       </c>
       <c r="D269" t="n">
-        <v>2.545843204955103</v>
+        <v>0.0</v>
       </c>
       <c r="E269" t="n">
-        <v>2.4314534825816376</v>
+        <v>0.0</v>
       </c>
       <c r="F269" t="n">
-        <v>2.415326779348469</v>
+        <v>0.0</v>
       </c>
       <c r="G269" t="n">
-        <v>2.35378355053922</v>
+        <v>0.0</v>
       </c>
       <c r="H269" t="n">
-        <v>2.4844852049288635</v>
+        <v>0.0</v>
       </c>
       <c r="I269" t="n">
-        <v>2.4358371132742023</v>
+        <v>0.0</v>
       </c>
       <c r="J269" t="n">
-        <v>2.186748029289856</v>
+        <v>0.0</v>
       </c>
       <c r="K269" t="n">
-        <v>2.0897674122283636</v>
+        <v>0.0</v>
       </c>
       <c r="L269" t="n">
-        <v>2.0391906851291006</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="270">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>1.5968739449391656</v>
+        <v>0.0</v>
       </c>
       <c r="C272" t="n">
-        <v>1.570280933752704</v>
+        <v>0.0</v>
       </c>
       <c r="D272" t="n">
-        <v>1.696493440281184</v>
+        <v>0.0</v>
       </c>
       <c r="E272" t="n">
-        <v>1.6202666666666663</v>
+        <v>0.0</v>
       </c>
       <c r="F272" t="n">
-        <v>1.609520189352124</v>
+        <v>0.0</v>
       </c>
       <c r="G272" t="n">
-        <v>1.5685091468160397</v>
+        <v>0.0</v>
       </c>
       <c r="H272" t="n">
-        <v>1.6556058300973806</v>
+        <v>0.0</v>
       </c>
       <c r="I272" t="n">
-        <v>1.6231878209231723</v>
+        <v>0.0</v>
       </c>
       <c r="J272" t="n">
-        <v>1.4572003806116058</v>
+        <v>0.0</v>
       </c>
       <c r="K272" t="n">
-        <v>1.3925746486109012</v>
+        <v>0.0</v>
       </c>
       <c r="L272" t="n">
-        <v>1.358871439557104</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="273">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>1.1518332010112649</v>
+        <v>0.0</v>
       </c>
       <c r="C315" t="n">
-        <v>0.9662765439052232</v>
+        <v>0.0</v>
       </c>
       <c r="D315" t="n">
-        <v>1.1000424976425125</v>
+        <v>0.0</v>
       </c>
       <c r="E315" t="n">
-        <v>0.9597063668619311</v>
+        <v>0.0</v>
       </c>
       <c r="F315" t="n">
-        <v>1.1628394041838361</v>
+        <v>0.0</v>
       </c>
       <c r="G315" t="n">
-        <v>0.9658778421882522</v>
+        <v>0.0</v>
       </c>
       <c r="H315" t="n">
-        <v>0.9553568569472618</v>
+        <v>0.0</v>
       </c>
       <c r="I315" t="n">
-        <v>1.1189408775595922</v>
+        <v>0.0</v>
       </c>
       <c r="J315" t="n">
-        <v>1.11824196367359</v>
+        <v>0.0</v>
       </c>
       <c r="K315" t="n">
-        <v>1.095440893132859</v>
+        <v>0.0</v>
       </c>
       <c r="L315" t="n">
-        <v>1.0579380359841737</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="316">
@@ -13783,37 +13783,37 @@
         <v>360.0</v>
       </c>
       <c r="B361" t="n">
-        <v>2.1162025474384</v>
+        <v>0.0</v>
       </c>
       <c r="C361" t="n">
-        <v>2.2713035289936157</v>
+        <v>0.0</v>
       </c>
       <c r="D361" t="n">
-        <v>1.9391309063787399</v>
+        <v>0.0</v>
       </c>
       <c r="E361" t="n">
-        <v>1.9707798934077232</v>
+        <v>0.0</v>
       </c>
       <c r="F361" t="n">
-        <v>2.202004067442951</v>
+        <v>0.0</v>
       </c>
       <c r="G361" t="n">
-        <v>2.273036456492045</v>
+        <v>0.0</v>
       </c>
       <c r="H361" t="n">
-        <v>1.946631540444336</v>
+        <v>0.0</v>
       </c>
       <c r="I361" t="n">
-        <v>2.313229636695133</v>
+        <v>0.0</v>
       </c>
       <c r="J361" t="n">
-        <v>2.302331028709905</v>
+        <v>0.0</v>
       </c>
       <c r="K361" t="n">
-        <v>1.9197716904787159</v>
+        <v>0.0</v>
       </c>
       <c r="L361" t="n">
-        <v>2.39039919203703</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="362">
@@ -14505,37 +14505,37 @@
         <v>379.0</v>
       </c>
       <c r="B380" t="n">
-        <v>0.719196739625977</v>
+        <v>0.0</v>
       </c>
       <c r="C380" t="n">
-        <v>0.8267355944278523</v>
+        <v>0.0</v>
       </c>
       <c r="D380" t="n">
-        <v>0.8412248036689253</v>
+        <v>0.0</v>
       </c>
       <c r="E380" t="n">
-        <v>0.8101333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F380" t="n">
-        <v>0.8521211308188064</v>
+        <v>0.0</v>
       </c>
       <c r="G380" t="n">
-        <v>0.8479460670818321</v>
+        <v>0.0</v>
       </c>
       <c r="H380" t="n">
-        <v>0.8631032673859593</v>
+        <v>0.0</v>
       </c>
       <c r="I380" t="n">
-        <v>0.8282412695834372</v>
+        <v>0.0</v>
       </c>
       <c r="J380" t="n">
-        <v>0.7190127843117016</v>
+        <v>0.0</v>
       </c>
       <c r="K380" t="n">
-        <v>0.8344348507400281</v>
+        <v>0.0</v>
       </c>
       <c r="L380" t="n">
-        <v>0.8184701527260275</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="381">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>1.3864907550341514</v>
+        <v>0.0</v>
       </c>
       <c r="C398" t="n">
-        <v>1.3126572784141535</v>
+        <v>0.0</v>
       </c>
       <c r="D398" t="n">
-        <v>1.0716408512504416</v>
+        <v>0.0</v>
       </c>
       <c r="E398" t="n">
-        <v>1.2859172567113006</v>
+        <v>0.0</v>
       </c>
       <c r="F398" t="n">
-        <v>1.2286328238278577</v>
+        <v>0.0</v>
       </c>
       <c r="G398" t="n">
-        <v>1.3194856249820444</v>
+        <v>0.0</v>
       </c>
       <c r="H398" t="n">
-        <v>1.1598657145789006</v>
+        <v>0.0</v>
       </c>
       <c r="I398" t="n">
-        <v>1.25421071761996</v>
+        <v>0.0</v>
       </c>
       <c r="J398" t="n">
-        <v>1.2846744973923654</v>
+        <v>0.0</v>
       </c>
       <c r="K398" t="n">
-        <v>1.2692700202469163</v>
+        <v>0.0</v>
       </c>
       <c r="L398" t="n">
-        <v>1.2990130182439752</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="399">
@@ -15569,37 +15569,37 @@
         <v>407.0</v>
       </c>
       <c r="B408" t="n">
-        <v>1.2743850791781173</v>
+        <v>0.0</v>
       </c>
       <c r="C408" t="n">
-        <v>1.298402114141773</v>
+        <v>0.0</v>
       </c>
       <c r="D408" t="n">
-        <v>1.0967614266248424</v>
+        <v>0.0</v>
       </c>
       <c r="E408" t="n">
-        <v>1.2845593777184772</v>
+        <v>0.0</v>
       </c>
       <c r="F408" t="n">
-        <v>1.2773075498885695</v>
+        <v>0.0</v>
       </c>
       <c r="G408" t="n">
-        <v>1.2981984775016937</v>
+        <v>0.0</v>
       </c>
       <c r="H408" t="n">
-        <v>1.2311658339137475</v>
+        <v>0.0</v>
       </c>
       <c r="I408" t="n">
-        <v>1.0894690667522766</v>
+        <v>0.0</v>
       </c>
       <c r="J408" t="n">
-        <v>1.287579276260856</v>
+        <v>0.0</v>
       </c>
       <c r="K408" t="n">
-        <v>1.097230920494338</v>
+        <v>0.0</v>
       </c>
       <c r="L408" t="n">
-        <v>1.237891622439439</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="409">
@@ -15835,37 +15835,37 @@
         <v>414.0</v>
       </c>
       <c r="B415" t="n">
-        <v>7.663873023487623</v>
+        <v>0.0</v>
       </c>
       <c r="C415" t="n">
-        <v>7.808306216695463</v>
+        <v>0.0</v>
       </c>
       <c r="D415" t="n">
-        <v>6.595683242095716</v>
+        <v>0.0</v>
       </c>
       <c r="E415" t="n">
-        <v>7.725059028715072</v>
+        <v>0.0</v>
       </c>
       <c r="F415" t="n">
-        <v>7.681448122887103</v>
+        <v>0.0</v>
       </c>
       <c r="G415" t="n">
-        <v>7.807081590498879</v>
+        <v>0.0</v>
       </c>
       <c r="H415" t="n">
-        <v>7.403961939083908</v>
+        <v>0.0</v>
       </c>
       <c r="I415" t="n">
-        <v>6.551828585431841</v>
+        <v>0.0</v>
       </c>
       <c r="J415" t="n">
-        <v>7.743220037777993</v>
+        <v>0.0</v>
       </c>
       <c r="K415" t="n">
-        <v>6.598506675498939</v>
+        <v>0.0</v>
       </c>
       <c r="L415" t="n">
-        <v>7.444409359636707</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="416">
@@ -17811,37 +17811,37 @@
         <v>466.0</v>
       </c>
       <c r="B467" t="n">
-        <v>0.7645707466136222</v>
+        <v>0.0</v>
       </c>
       <c r="C467" t="n">
-        <v>0.7518382209925645</v>
+        <v>0.0</v>
       </c>
       <c r="D467" t="n">
-        <v>0.8122677812933513</v>
+        <v>0.0</v>
       </c>
       <c r="E467" t="n">
-        <v>0.7757709986893747</v>
+        <v>0.0</v>
       </c>
       <c r="F467" t="n">
-        <v>0.7706256694604235</v>
+        <v>0.0</v>
       </c>
       <c r="G467" t="n">
-        <v>0.7509899032745011</v>
+        <v>0.0</v>
       </c>
       <c r="H467" t="n">
-        <v>0.7926911135516354</v>
+        <v>0.0</v>
       </c>
       <c r="I467" t="n">
-        <v>0.7771696244844466</v>
+        <v>0.0</v>
       </c>
       <c r="J467" t="n">
-        <v>0.6976961371940438</v>
+        <v>0.0</v>
       </c>
       <c r="K467" t="n">
-        <v>0.6667538425171067</v>
+        <v>0.0</v>
       </c>
       <c r="L467" t="n">
-        <v>0.6506170098064206</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="468">
@@ -18343,37 +18343,37 @@
         <v>480.0</v>
       </c>
       <c r="B481" t="n">
-        <v>0.8482604181704391</v>
+        <v>0.0</v>
       </c>
       <c r="C481" t="n">
-        <v>0.8167980069825695</v>
+        <v>0.0</v>
       </c>
       <c r="D481" t="n">
-        <v>0.9680719840614869</v>
+        <v>0.0</v>
       </c>
       <c r="E481" t="n">
-        <v>0.8101333333333331</v>
+        <v>0.0</v>
       </c>
       <c r="F481" t="n">
-        <v>0.9491426719303921</v>
+        <v>0.0</v>
       </c>
       <c r="G481" t="n">
-        <v>0.8125710720603226</v>
+        <v>0.0</v>
       </c>
       <c r="H481" t="n">
-        <v>0.9386733168278931</v>
+        <v>0.0</v>
       </c>
       <c r="I481" t="n">
-        <v>0.9094019151543677</v>
+        <v>0.0</v>
       </c>
       <c r="J481" t="n">
-        <v>0.7880584991923585</v>
+        <v>0.0</v>
       </c>
       <c r="K481" t="n">
-        <v>0.9383336131933194</v>
+        <v>0.0</v>
       </c>
       <c r="L481" t="n">
-        <v>0.9620962316258527</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="482">
@@ -19749,37 +19749,37 @@
         <v>517.0</v>
       </c>
       <c r="B518" t="n">
-        <v>0.8350744353087796</v>
+        <v>0.0</v>
       </c>
       <c r="C518" t="n">
-        <v>0.9713882989675261</v>
+        <v>0.0</v>
       </c>
       <c r="D518" t="n">
-        <v>1.0152846690247623</v>
+        <v>0.0</v>
       </c>
       <c r="E518" t="n">
-        <v>0.9932818969187038</v>
+        <v>0.0</v>
       </c>
       <c r="F518" t="n">
-        <v>0.8985126186585319</v>
+        <v>0.0</v>
       </c>
       <c r="G518" t="n">
-        <v>0.9706477276977052</v>
+        <v>0.0</v>
       </c>
       <c r="H518" t="n">
-        <v>0.9968469670358087</v>
+        <v>0.0</v>
       </c>
       <c r="I518" t="n">
-        <v>0.8903367139278309</v>
+        <v>0.0</v>
       </c>
       <c r="J518" t="n">
-        <v>0.875318986336005</v>
+        <v>0.0</v>
       </c>
       <c r="K518" t="n">
-        <v>1.0346016922215777</v>
+        <v>0.0</v>
       </c>
       <c r="L518" t="n">
-        <v>1.0353876350274545</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="519">
@@ -19977,37 +19977,37 @@
         <v>523.0</v>
       </c>
       <c r="B524" t="n">
-        <v>10.674392658553106</v>
+        <v>0.0</v>
       </c>
       <c r="C524" t="n">
-        <v>10.496630196915348</v>
+        <v>0.0</v>
       </c>
       <c r="D524" t="n">
-        <v>11.340304713225724</v>
+        <v>0.0</v>
       </c>
       <c r="E524" t="n">
-        <v>10.830762607391568</v>
+        <v>0.0</v>
       </c>
       <c r="F524" t="n">
-        <v>10.75892718236306</v>
+        <v>0.0</v>
       </c>
       <c r="G524" t="n">
-        <v>10.484786588639823</v>
+        <v>0.0</v>
       </c>
       <c r="H524" t="n">
-        <v>11.066989209923175</v>
+        <v>0.0</v>
       </c>
       <c r="I524" t="n">
-        <v>10.85028922541234</v>
+        <v>0.0</v>
       </c>
       <c r="J524" t="n">
-        <v>9.740736953056048</v>
+        <v>0.0</v>
       </c>
       <c r="K524" t="n">
-        <v>9.308742654815918</v>
+        <v>0.0</v>
       </c>
       <c r="L524" t="n">
-        <v>9.083451680262984</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="525">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>9.152063276260844</v>
+        <v>0.0</v>
       </c>
       <c r="C532" t="n">
-        <v>8.999652422632643</v>
+        <v>0.0</v>
       </c>
       <c r="D532" t="n">
-        <v>9.723006228776772</v>
+        <v>0.0</v>
       </c>
       <c r="E532" t="n">
-        <v>9.286132512052781</v>
+        <v>0.0</v>
       </c>
       <c r="F532" t="n">
-        <v>9.224541902041706</v>
+        <v>0.0</v>
       </c>
       <c r="G532" t="n">
-        <v>8.989497891520282</v>
+        <v>0.0</v>
       </c>
       <c r="H532" t="n">
-        <v>9.488669638338187</v>
+        <v>0.0</v>
       </c>
       <c r="I532" t="n">
-        <v>9.302874339847008</v>
+        <v>0.0</v>
       </c>
       <c r="J532" t="n">
-        <v>8.351560955587427</v>
+        <v>0.0</v>
       </c>
       <c r="K532" t="n">
-        <v>7.981175559533102</v>
+        <v>0.0</v>
       </c>
       <c r="L532" t="n">
-        <v>7.788014475747525</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="533">
@@ -20395,37 +20395,37 @@
         <v>534.0</v>
       </c>
       <c r="B535" t="n">
-        <v>6.099814369116675</v>
+        <v>0.0</v>
       </c>
       <c r="C535" t="n">
-        <v>5.998233131432045</v>
+        <v>0.0</v>
       </c>
       <c r="D535" t="n">
-        <v>6.480345613337423</v>
+        <v>0.0</v>
       </c>
       <c r="E535" t="n">
-        <v>6.189170990269131</v>
+        <v>0.0</v>
       </c>
       <c r="F535" t="n">
-        <v>6.148121089650251</v>
+        <v>0.0</v>
       </c>
       <c r="G535" t="n">
-        <v>5.991465176172</v>
+        <v>0.0</v>
       </c>
       <c r="H535" t="n">
-        <v>6.324161192576831</v>
+        <v>0.0</v>
       </c>
       <c r="I535" t="n">
-        <v>6.200329352996954</v>
+        <v>0.0</v>
       </c>
       <c r="J535" t="n">
-        <v>5.566282704096336</v>
+        <v>0.0</v>
       </c>
       <c r="K535" t="n">
-        <v>5.319422286640154</v>
+        <v>0.0</v>
       </c>
       <c r="L535" t="n">
-        <v>5.190681179977832</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="536">
@@ -20661,37 +20661,37 @@
         <v>541.0</v>
       </c>
       <c r="B542" t="n">
-        <v>0.8185937403198158</v>
+        <v>0.0</v>
       </c>
       <c r="C542" t="n">
-        <v>0.7933467562607444</v>
+        <v>0.0</v>
       </c>
       <c r="D542" t="n">
-        <v>0.7862619901489234</v>
+        <v>0.0</v>
       </c>
       <c r="E542" t="n">
-        <v>0.6927321312767675</v>
+        <v>0.0</v>
       </c>
       <c r="F542" t="n">
-        <v>0.8105258534198129</v>
+        <v>0.0</v>
       </c>
       <c r="G542" t="n">
-        <v>0.8073447473848132</v>
+        <v>0.0</v>
       </c>
       <c r="H542" t="n">
-        <v>0.6934559898777071</v>
+        <v>0.0</v>
       </c>
       <c r="I542" t="n">
-        <v>0.8270937560225722</v>
+        <v>0.0</v>
       </c>
       <c r="J542" t="n">
-        <v>0.7899632810356985</v>
+        <v>0.0</v>
       </c>
       <c r="K542" t="n">
-        <v>0.8245870203283583</v>
+        <v>0.0</v>
       </c>
       <c r="L542" t="n">
-        <v>0.7159354831625764</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="543">
@@ -21345,37 +21345,37 @@
         <v>559.0</v>
       </c>
       <c r="B560" t="n">
-        <v>1.3055562846390127</v>
+        <v>0.0</v>
       </c>
       <c r="C560" t="n">
-        <v>1.3414616429289314</v>
+        <v>0.0</v>
       </c>
       <c r="D560" t="n">
-        <v>1.2662914340130673</v>
+        <v>0.0</v>
       </c>
       <c r="E560" t="n">
-        <v>1.1911697611406835</v>
+        <v>0.0</v>
       </c>
       <c r="F560" t="n">
-        <v>1.328868081525584</v>
+        <v>0.0</v>
       </c>
       <c r="G560" t="n">
-        <v>1.3487964134328434</v>
+        <v>0.0</v>
       </c>
       <c r="H560" t="n">
-        <v>1.2841987030403212</v>
+        <v>0.0</v>
       </c>
       <c r="I560" t="n">
-        <v>1.3527153424679466</v>
+        <v>0.0</v>
       </c>
       <c r="J560" t="n">
-        <v>1.4227888496589691</v>
+        <v>0.0</v>
       </c>
       <c r="K560" t="n">
-        <v>1.3094486502414544</v>
+        <v>0.0</v>
       </c>
       <c r="L560" t="n">
-        <v>1.353350422923128</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="561">
@@ -23435,37 +23435,37 @@
         <v>614.0</v>
       </c>
       <c r="B615" t="n">
-        <v>0.2065935412761003</v>
+        <v>0.0</v>
       </c>
       <c r="C615" t="n">
-        <v>0.24031695876747025</v>
+        <v>0.0</v>
       </c>
       <c r="D615" t="n">
-        <v>0.2511767170786408</v>
+        <v>0.0</v>
       </c>
       <c r="E615" t="n">
-        <v>0.24573333333333336</v>
+        <v>0.0</v>
       </c>
       <c r="F615" t="n">
-        <v>0.2222878535388171</v>
+        <v>0.0</v>
       </c>
       <c r="G615" t="n">
-        <v>0.24013374487092332</v>
+        <v>0.0</v>
       </c>
       <c r="H615" t="n">
-        <v>0.24661531514147952</v>
+        <v>0.0</v>
       </c>
       <c r="I615" t="n">
-        <v>0.22026517263753076</v>
+        <v>0.0</v>
       </c>
       <c r="J615" t="n">
-        <v>0.2165498565005113</v>
+        <v>0.0</v>
       </c>
       <c r="K615" t="n">
-        <v>0.2559556590033413</v>
+        <v>0.0</v>
       </c>
       <c r="L615" t="n">
-        <v>0.2561500976074239</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="616">
@@ -23625,37 +23625,37 @@
         <v>619.0</v>
       </c>
       <c r="B620" t="n">
-        <v>4.7906218348174985</v>
+        <v>0.0</v>
       </c>
       <c r="C620" t="n">
-        <v>4.710842801258114</v>
+        <v>0.0</v>
       </c>
       <c r="D620" t="n">
-        <v>5.0894803208435535</v>
+        <v>0.0</v>
       </c>
       <c r="E620" t="n">
-        <v>4.860800000000001</v>
+        <v>0.0</v>
       </c>
       <c r="F620" t="n">
-        <v>4.828560568056374</v>
+        <v>0.0</v>
       </c>
       <c r="G620" t="n">
-        <v>4.705527440448121</v>
+        <v>0.0</v>
       </c>
       <c r="H620" t="n">
-        <v>4.966817490292144</v>
+        <v>0.0</v>
       </c>
       <c r="I620" t="n">
-        <v>4.869563462769518</v>
+        <v>0.0</v>
       </c>
       <c r="J620" t="n">
-        <v>4.3716011418348195</v>
+        <v>0.0</v>
       </c>
       <c r="K620" t="n">
-        <v>4.177723945832705</v>
+        <v>0.0</v>
       </c>
       <c r="L620" t="n">
-        <v>4.0766143186713135</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="621">
